--- a/data/trans_camb/IP1004-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP1004-Habitat-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,03; -0,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,16; -0,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,47; -0,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,55; -0,16</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -677,12 +677,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -697,12 +697,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,63</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,25</t>
+          <t>-3,03; -0,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,16; -0,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 1,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,31</t>
+          <t>-1,47; -0,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,0</t>
+          <t>-1,55; -0,16</t>
         </is>
       </c>
     </row>
@@ -989,27 +989,27 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>15,11%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>238,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-0,45</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,23</t>
         </is>
       </c>
     </row>
@@ -1107,12 +1107,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 1,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,6; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 0,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,35; 0,0</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>14,87%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-0,16</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,63</t>
+          <t>0,0; 2,25</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 1,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,64; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 0,81</t>
+          <t>-0,15; 1,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 0,0</t>
+          <t>-1,11; 0,0</t>
         </is>
       </c>
     </row>
@@ -1301,27 +1301,27 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>15,11%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>238,17%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">

--- a/data/trans_camb/IP1004-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP1004-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -805,17 +805,17 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 0,0</t>
+          <t>-3,63; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 3,1</t>
+          <t>-1,26; 2,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,0</t>
+          <t>-1,73; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -951,12 +951,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,03; -0,31</t>
+          <t>-3,06; -0,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,16; -0,32</t>
+          <t>-3,03; -0,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,47; -0,16</t>
+          <t>-1,57; -0,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,55; -0,16</t>
+          <t>-1,61; -0,16</t>
         </is>
       </c>
     </row>
@@ -1107,12 +1107,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,63</t>
+          <t>-0,91; 2,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 0,0</t>
+          <t>-2,5; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 0,0</t>
+          <t>-1,36; 0,0</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,25</t>
+          <t>0,0; 2,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1273,22 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 1,15</t>
+          <t>-0,66; 1,14</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 0,0</t>
+          <t>-1,72; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,31</t>
+          <t>-0,14; 1,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,0</t>
+          <t>-0,82; 0,0</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 0,36</t>
+          <t>-0,68; 0,37</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,0; -0,17</t>
+          <t>-1,0; -0,18</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 0,33</t>
+          <t>-0,51; 0,24</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 0,38</t>
+          <t>-0,41; 0,39</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 0,24</t>
+          <t>-0,46; 0,21</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 0,0</t>
+          <t>-0,59; -0,0</t>
         </is>
       </c>
     </row>
@@ -1515,12 +1515,19 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-87,83; 178,42</t>
+          <t>-90,4; 175,12</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 68,45</t>
+          <t>-100,0; 60,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1004-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP1004-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 0,0</t>
+          <t>-3,28; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 2,95</t>
+          <t>-1,28; 2,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 0,0</t>
+          <t>-1,4; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 1,49</t>
+          <t>-0,6; 1,47</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -951,12 +951,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,06; -0,33</t>
+          <t>-3,04; -0,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,03; -0,33</t>
+          <t>-3,14; -0,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,57; -0,17</t>
+          <t>-1,46; -0,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,61; -0,16</t>
+          <t>-1,48; -0,15</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1107,12 +1107,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 2,04</t>
+          <t>-0,91; 1,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 0,0</t>
+          <t>-2,42; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 0,0</t>
+          <t>-1,07; 0,0</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,55</t>
+          <t>0,0; 2,59</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1273,22 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,14</t>
+          <t>-0,66; 1,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,0</t>
+          <t>-1,65; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 1,31</t>
+          <t>-0,15; 1,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 0,0</t>
+          <t>-0,81; 0,0</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 0,37</t>
+          <t>-0,65; 0,39</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,0; -0,18</t>
+          <t>-0,99; -0,17</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 0,24</t>
+          <t>-0,42; 0,24</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 0,39</t>
+          <t>-0,42; 0,33</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,21</t>
+          <t>-0,46; 0,19</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,59; -0,0</t>
+          <t>-0,57; -0,01</t>
         </is>
       </c>
     </row>
@@ -1515,12 +1515,12 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-90,4; 175,12</t>
+          <t>-93,74; 124,38</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 60,47</t>
+          <t>-100,0; 49,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1004-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP1004-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-0,53</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,65; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 2,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 1,33</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>92,85%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,49%</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -767,22 +767,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>-0,63</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,59</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>-0,63</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 0,0</t>
+          <t>-3,03; -0,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 2,87</t>
+          <t>-3,16; -0,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 0,0</t>
+          <t>-1,47; -0,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 1,47</t>
+          <t>-1,55; -0,16</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>93,94%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>93,79%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,23</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,04; -0,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,14; -0,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 1,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,6; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,46; -0,15</t>
+          <t>-0,47; 0,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,48; -0,15</t>
+          <t>-1,35; 0,0</t>
         </is>
       </c>
     </row>
@@ -989,27 +989,27 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>14,87%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-0,16</t>
         </is>
       </c>
     </row>
@@ -1107,17 +1107,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,57</t>
+          <t>-0,93; 1,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 0,0</t>
+          <t>-1,64; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 0,81</t>
+          <t>-0,15; 1,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 0,0</t>
+          <t>-1,11; 0,0</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1155,17 +1155,17 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>238,17%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,24</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,59</t>
+          <t>-0,42; 0,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 0,38</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,18</t>
+          <t>-0,67; 0,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 0,0</t>
+          <t>-1,0; -0,17</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,33</t>
+          <t>-0,43; 0,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 0,0</t>
+          <t>-0,54; 0,0</t>
         </is>
       </c>
     </row>
@@ -1301,17 +1301,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-46,2%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,07%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>-29,4%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>238,17%</t>
+          <t>-34,53%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-71,79%</t>
         </is>
       </c>
     </row>
@@ -1359,180 +1359,24 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,83; 178,42</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 68,45</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-0,13</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,45</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,65; 0,39</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,99; -0,17</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,42; 0,24</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,42; 0,33</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,46; 0,19</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-0,57; -0,01</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-29,4%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-46,2%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-7,07%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-34,53%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-71,79%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-93,74; 124,38</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 49,91</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
